--- a/biology/Zoologie/Domaine_des_Fauves/Domaine_des_Fauves.xlsx
+++ b/biology/Zoologie/Domaine_des_Fauves/Domaine_des_Fauves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le domaine des Fauves est un zoo situé sur le territoire de la commune de Les Abrets en Dauphiné, dans le département de l'Isère. Il présente au public, depuis 1968, un large éventail d'espèces animales, plus particulièrement des carnivores à poils et à plumes (notamment félins, canidés, et rapaces), mais aussi quelques animaux domestiques. Le Domaine des Fauves propose de découvrir la deuxième plus grande plus grande diversité de félins en France, et la plus grande de rapaces nocturnes (chouettes et hiboux) de France avec une vingtaine d'espèces.
@@ -513,7 +525,9 @@
           <t>Services à la disposition du public</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2016, le domaine des Fauves vous propose une expérience unique : « entrez sur le territoire des loups. »
 Depuis 2018, le domaine des Fauves propose une animation pédagogique avec des oiseaux en vol libre : buses, vautours, hiboux, chouettes et cigognes.
@@ -549,8 +563,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mammifères
-Félidés
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Félidés</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lion (Panthera leo)
 Tigre (Panthera tigris) blanc
 Jaguar, jaguar noir (Panthera onca)
@@ -570,7 +593,47 @@
 Serval (Leptailurus serval)
 Chat forestier (Felis silvestris)
 Chat sauvage de Gordon ( Felis silvestris gordoni ) .
-Canidés, Hyénidés et Petits Carnivores
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Animaux présentés[1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Canidés, Hyénidés et Petits Carnivores</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Otocyon (Otocyon megalotis)
 Loup du Canada, région de Mackenzie (Canis lupus mackenzii)
 Loup arctique (Canis lupus arctos)
@@ -580,15 +643,90 @@
 Suricate ("Suricata suricatta")
 Coati à queue annelée (Nasua nasua)
 Tayra, martre à tête grise (Eira barbara).
-Autres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Animaux présentés[1]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lama (Lama glama)
 Mouton d'Ouessant (Ovis aries)
 Chèvre naine ("Capra hircus)
 Tortue de Floride (Trachemys scripta elegans)
 Tortue d'Hermann (Testudo hermanni)
 Zébu nain (Bos taurus indicus)
-Paon bleu (Pavo cristatus)
-Oiseaux
+Paon bleu (Pavo cristatus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_des_Fauves</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Animaux présentés[1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chouette boobook (Ninox novaeseelandiae)
 Chouette à lunettes (Pulsatrix perspicillata)
 Chouette Chevêche (Athene noctua)
